--- a/data/pca/factorExposure/factorExposure_2015-12-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +720,97 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01449106030819114</v>
+        <v>0.01435925967027387</v>
       </c>
       <c r="C2">
-        <v>0.03081213152683055</v>
+        <v>-0.03372240630846837</v>
       </c>
       <c r="D2">
-        <v>-0.08934069663953124</v>
+        <v>0.1235979407906834</v>
       </c>
       <c r="E2">
-        <v>-0.05737233529516022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.06838568861948929</v>
+      </c>
+      <c r="F2">
+        <v>0.02333934682395348</v>
+      </c>
+      <c r="G2">
+        <v>-0.07138695956342014</v>
+      </c>
+      <c r="H2">
+        <v>-0.09770304980063502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01744822581829937</v>
+        <v>0.01036815691930173</v>
       </c>
       <c r="C3">
-        <v>0.05559089332998059</v>
+        <v>-0.03776950087920745</v>
       </c>
       <c r="D3">
-        <v>-0.1220898465735866</v>
+        <v>0.0724464942423802</v>
       </c>
       <c r="E3">
-        <v>-0.09131870521018301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.0465304490008723</v>
+      </c>
+      <c r="F3">
+        <v>0.03936273715717642</v>
+      </c>
+      <c r="G3">
+        <v>-0.09664316455600726</v>
+      </c>
+      <c r="H3">
+        <v>-0.01059224233820102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05216352519209495</v>
+        <v>0.05416068764185952</v>
       </c>
       <c r="C4">
-        <v>0.03793091500063873</v>
+        <v>-0.06304087244867657</v>
       </c>
       <c r="D4">
-        <v>-0.1284376610062426</v>
+        <v>0.1443367164890969</v>
       </c>
       <c r="E4">
-        <v>-0.05065575173323932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.05478308014581773</v>
+      </c>
+      <c r="F4">
+        <v>0.0148482856323251</v>
+      </c>
+      <c r="G4">
+        <v>0.0398281044663719</v>
+      </c>
+      <c r="H4">
+        <v>0.01873846295004906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04406316356982709</v>
+        <v>0.04004661668692486</v>
       </c>
       <c r="C6">
-        <v>0.009928456045623453</v>
+        <v>-0.02793564996128351</v>
       </c>
       <c r="D6">
-        <v>-0.1341976235014803</v>
+        <v>0.1318556318630001</v>
       </c>
       <c r="E6">
-        <v>-0.04921794633398784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03126453539548724</v>
+      </c>
+      <c r="F6">
+        <v>0.01338702820535154</v>
+      </c>
+      <c r="G6">
+        <v>-0.01042510778968612</v>
+      </c>
+      <c r="H6">
+        <v>-0.01644942339856344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01994063942261057</v>
+        <v>0.01380805849859769</v>
       </c>
       <c r="C7">
-        <v>0.01702828882271005</v>
+        <v>-0.03037449006369299</v>
       </c>
       <c r="D7">
-        <v>-0.0962228451587287</v>
+        <v>0.09303458165589498</v>
       </c>
       <c r="E7">
-        <v>-0.04742315906410722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.03202150649853527</v>
+      </c>
+      <c r="F7">
+        <v>0.01744551723566124</v>
+      </c>
+      <c r="G7">
+        <v>0.0009668701016136897</v>
+      </c>
+      <c r="H7">
+        <v>-0.1157939850703113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009198036148498075</v>
+        <v>0.006152748106404869</v>
       </c>
       <c r="C8">
-        <v>0.0305686183134478</v>
+        <v>-0.03733327994895314</v>
       </c>
       <c r="D8">
-        <v>-0.05387203817556269</v>
+        <v>0.07023391147162673</v>
       </c>
       <c r="E8">
-        <v>-0.03071060782121236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03551703091190832</v>
+      </c>
+      <c r="F8">
+        <v>0.03957314145139895</v>
+      </c>
+      <c r="G8">
+        <v>-0.01380459408784307</v>
+      </c>
+      <c r="H8">
+        <v>-0.04450817815408165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04268008543456273</v>
+        <v>0.04169668434221561</v>
       </c>
       <c r="C9">
-        <v>0.04055981224681066</v>
+        <v>-0.05944297826502806</v>
       </c>
       <c r="D9">
-        <v>-0.1124410078871834</v>
+        <v>0.121154050826123</v>
       </c>
       <c r="E9">
-        <v>-0.04269074939506371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.03754868742281667</v>
+      </c>
+      <c r="F9">
+        <v>-0.0005217892607050961</v>
+      </c>
+      <c r="G9">
+        <v>0.02837535314821198</v>
+      </c>
+      <c r="H9">
+        <v>-0.009676616150214075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09691476305571151</v>
+        <v>0.13806824568884</v>
       </c>
       <c r="C10">
-        <v>-0.1925429669620257</v>
+        <v>0.1869422939857563</v>
       </c>
       <c r="D10">
-        <v>-0.0004232973766705094</v>
+        <v>0.001131470150777584</v>
       </c>
       <c r="E10">
-        <v>-0.02965620278799209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.04423789146690824</v>
+      </c>
+      <c r="F10">
+        <v>0.01981434900562593</v>
+      </c>
+      <c r="G10">
+        <v>0.0357860806969219</v>
+      </c>
+      <c r="H10">
+        <v>0.0003704330365439433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03381447375868215</v>
+        <v>0.02770940753561836</v>
       </c>
       <c r="C11">
-        <v>0.04085524212702207</v>
+        <v>-0.0444457243464573</v>
       </c>
       <c r="D11">
-        <v>-0.05768924350193677</v>
+        <v>0.05721668116350439</v>
       </c>
       <c r="E11">
-        <v>-0.006204475627625148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.004209815350597111</v>
+      </c>
+      <c r="F11">
+        <v>0.00103594104073923</v>
+      </c>
+      <c r="G11">
+        <v>-0.001756980822899091</v>
+      </c>
+      <c r="H11">
+        <v>-0.04861002648059914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0388665496217575</v>
+        <v>0.03320665927619843</v>
       </c>
       <c r="C12">
-        <v>0.04124474181874518</v>
+        <v>-0.04564121887835573</v>
       </c>
       <c r="D12">
-        <v>-0.06086791234279847</v>
+        <v>0.05664979959942282</v>
       </c>
       <c r="E12">
-        <v>-0.01702038475420355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003154404032216741</v>
+      </c>
+      <c r="F12">
+        <v>-0.006955271592367957</v>
+      </c>
+      <c r="G12">
+        <v>-0.00108478919995506</v>
+      </c>
+      <c r="H12">
+        <v>-0.06173681248507173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01810847241076853</v>
+        <v>0.01830087749061652</v>
       </c>
       <c r="C13">
-        <v>0.02965765790971284</v>
+        <v>-0.03943336266293014</v>
       </c>
       <c r="D13">
-        <v>-0.1265416730157704</v>
+        <v>0.1440435279766359</v>
       </c>
       <c r="E13">
-        <v>-0.07944179452390791</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04897591177709299</v>
+      </c>
+      <c r="F13">
+        <v>0.03366971098362731</v>
+      </c>
+      <c r="G13">
+        <v>-0.009698751703222165</v>
+      </c>
+      <c r="H13">
+        <v>-0.1034795009633132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01172258540712002</v>
+        <v>0.008363448692882147</v>
       </c>
       <c r="C14">
-        <v>0.01923007737984635</v>
+        <v>-0.0246412500579043</v>
       </c>
       <c r="D14">
-        <v>-0.07823952113370537</v>
+        <v>0.08403280094286909</v>
       </c>
       <c r="E14">
-        <v>-0.05553261782830337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03549195396141699</v>
+      </c>
+      <c r="F14">
+        <v>-0.01035595803777975</v>
+      </c>
+      <c r="G14">
+        <v>-0.01348598646249498</v>
+      </c>
+      <c r="H14">
+        <v>-0.1066452421347773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00227947366582975</v>
+        <v>0.001292423005441305</v>
       </c>
       <c r="C15">
-        <v>3.11406217660849e-05</v>
+        <v>-0.009921504197472272</v>
       </c>
       <c r="D15">
-        <v>-0.002015540099330416</v>
+        <v>0.03117048037255798</v>
       </c>
       <c r="E15">
-        <v>0.0007376468420424039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006542727285061275</v>
+      </c>
+      <c r="F15">
+        <v>-0.001715457437602331</v>
+      </c>
+      <c r="G15">
+        <v>-0.01043118691051978</v>
+      </c>
+      <c r="H15">
+        <v>-0.0102445505162381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03349003221091433</v>
+        <v>0.02809740141889467</v>
       </c>
       <c r="C16">
-        <v>0.0422886985679934</v>
+        <v>-0.04400442236186969</v>
       </c>
       <c r="D16">
-        <v>-0.06728800629811764</v>
+        <v>0.06015100237017153</v>
       </c>
       <c r="E16">
-        <v>-0.02772025836327217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.008486937789816632</v>
+      </c>
+      <c r="F16">
+        <v>-0.006587153336986071</v>
+      </c>
+      <c r="G16">
+        <v>-0.00307382419327137</v>
+      </c>
+      <c r="H16">
+        <v>-0.06093426385520517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009481370351233979</v>
+        <v>0.006263477531148733</v>
       </c>
       <c r="C19">
-        <v>0.02610122373885727</v>
+        <v>-0.02071611191500354</v>
       </c>
       <c r="D19">
-        <v>-0.1692326121280971</v>
+        <v>0.123457741556775</v>
       </c>
       <c r="E19">
-        <v>-0.11620495966035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06509085021684409</v>
+      </c>
+      <c r="F19">
+        <v>-0.00892207474385368</v>
+      </c>
+      <c r="G19">
+        <v>-0.01989412877651266</v>
+      </c>
+      <c r="H19">
+        <v>-0.06791134690002316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01969839997317342</v>
+        <v>0.01581146538069011</v>
       </c>
       <c r="C20">
-        <v>0.02466839614690365</v>
+        <v>-0.03273707183916338</v>
       </c>
       <c r="D20">
-        <v>-0.0885669357650066</v>
+        <v>0.0980236124523325</v>
       </c>
       <c r="E20">
-        <v>-0.07289007470985277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05143088051307425</v>
+      </c>
+      <c r="F20">
+        <v>-0.004626352344565134</v>
+      </c>
+      <c r="G20">
+        <v>-0.00158404701492102</v>
+      </c>
+      <c r="H20">
+        <v>-0.06032963378096572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01291715767954514</v>
+        <v>0.01414576902666011</v>
       </c>
       <c r="C21">
-        <v>0.02825607888725863</v>
+        <v>-0.03742046340589281</v>
       </c>
       <c r="D21">
-        <v>-0.1289499796194624</v>
+        <v>0.1383134288524526</v>
       </c>
       <c r="E21">
-        <v>-0.09699377773355561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.08988443143152901</v>
+      </c>
+      <c r="F21">
+        <v>-0.0007493170221662156</v>
+      </c>
+      <c r="G21">
+        <v>0.02359604437613307</v>
+      </c>
+      <c r="H21">
+        <v>-0.1258579129589371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.008405161567793654</v>
+        <v>0.005702475652382245</v>
       </c>
       <c r="C22">
-        <v>0.03056816144722319</v>
+        <v>-0.04142397422843466</v>
       </c>
       <c r="D22">
-        <v>-0.08587962811999279</v>
+        <v>0.1431851656159979</v>
       </c>
       <c r="E22">
-        <v>0.01273325418215045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.03074399411006</v>
+      </c>
+      <c r="F22">
+        <v>0.08417376539007131</v>
+      </c>
+      <c r="G22">
+        <v>-0.07040823012806105</v>
+      </c>
+      <c r="H22">
+        <v>0.0583276607658272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.00848525720924286</v>
+        <v>0.005807576244294236</v>
       </c>
       <c r="C23">
-        <v>0.03044737543985402</v>
+        <v>-0.04189526685742949</v>
       </c>
       <c r="D23">
-        <v>-0.0851637694571243</v>
+        <v>0.1426339392348429</v>
       </c>
       <c r="E23">
-        <v>0.0124526903931348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0310203071220908</v>
+      </c>
+      <c r="F23">
+        <v>0.08413827794417417</v>
+      </c>
+      <c r="G23">
+        <v>-0.06946649070436436</v>
+      </c>
+      <c r="H23">
+        <v>0.05849505789724527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03378175385436717</v>
+        <v>0.03011968900866655</v>
       </c>
       <c r="C24">
-        <v>0.04736377547163843</v>
+        <v>-0.05627724391377747</v>
       </c>
       <c r="D24">
-        <v>-0.06626589352942122</v>
+        <v>0.06473409894775541</v>
       </c>
       <c r="E24">
-        <v>-0.02223911657839516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0131720909658051</v>
+      </c>
+      <c r="F24">
+        <v>-0.005131925009774774</v>
+      </c>
+      <c r="G24">
+        <v>0.005774325259896988</v>
+      </c>
+      <c r="H24">
+        <v>-0.07216934077417436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04009855336309636</v>
+        <v>0.03462417720990164</v>
       </c>
       <c r="C25">
-        <v>0.04920094270700023</v>
+        <v>-0.05364089018007626</v>
       </c>
       <c r="D25">
-        <v>-0.06597675110351905</v>
+        <v>0.0614345507761123</v>
       </c>
       <c r="E25">
-        <v>-0.02493301850410004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01323420637833116</v>
+      </c>
+      <c r="F25">
+        <v>0.0001694603614767074</v>
+      </c>
+      <c r="G25">
+        <v>0.006533509812545648</v>
+      </c>
+      <c r="H25">
+        <v>-0.05608073462381075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02066167371077348</v>
+        <v>0.01783796039583607</v>
       </c>
       <c r="C26">
-        <v>0.01014989193795763</v>
+        <v>-0.01813019868786625</v>
       </c>
       <c r="D26">
-        <v>-0.05278765553608783</v>
+        <v>0.06144410875503866</v>
       </c>
       <c r="E26">
-        <v>-0.03626580803390443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02611346643508284</v>
+      </c>
+      <c r="F26">
+        <v>0.002269116389255159</v>
+      </c>
+      <c r="G26">
+        <v>-0.007087349670290325</v>
+      </c>
+      <c r="H26">
+        <v>-0.06568849781235171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1472090755312307</v>
+        <v>0.1978481267644201</v>
       </c>
       <c r="C28">
-        <v>-0.2725481601849053</v>
+        <v>0.2511470382682692</v>
       </c>
       <c r="D28">
-        <v>0.03053238392846275</v>
+        <v>-0.01352637282866723</v>
       </c>
       <c r="E28">
-        <v>-0.06557945915070687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0703232453122314</v>
+      </c>
+      <c r="F28">
+        <v>0.001999078779399398</v>
+      </c>
+      <c r="G28">
+        <v>0.06646463397870291</v>
+      </c>
+      <c r="H28">
+        <v>-0.01538223290473177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.008182582195997721</v>
+        <v>0.00659265224158796</v>
       </c>
       <c r="C29">
-        <v>0.01994993317553187</v>
+        <v>-0.02375194794067492</v>
       </c>
       <c r="D29">
-        <v>-0.06400952925462601</v>
+        <v>0.07922755040861636</v>
       </c>
       <c r="E29">
-        <v>-0.04836124884189633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03295676760472606</v>
+      </c>
+      <c r="F29">
+        <v>0.004931925897775176</v>
+      </c>
+      <c r="G29">
+        <v>0.004810446487997795</v>
+      </c>
+      <c r="H29">
+        <v>-0.111413241304103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03848159469460632</v>
+        <v>0.04114869301368207</v>
       </c>
       <c r="C30">
-        <v>0.0397033190408968</v>
+        <v>-0.06055185761713618</v>
       </c>
       <c r="D30">
-        <v>-0.1655551193003378</v>
+        <v>0.1770223744600635</v>
       </c>
       <c r="E30">
-        <v>-0.02094596707364508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.01971861605015291</v>
+      </c>
+      <c r="F30">
+        <v>0.006233380215933931</v>
+      </c>
+      <c r="G30">
+        <v>-0.02417521968875277</v>
+      </c>
+      <c r="H30">
+        <v>-0.005870417496725862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06917690390599673</v>
+        <v>0.05606386302149612</v>
       </c>
       <c r="C31">
-        <v>0.0504078029197743</v>
+        <v>-0.07201835800443486</v>
       </c>
       <c r="D31">
-        <v>-0.06785843796148246</v>
+        <v>0.05607286622038246</v>
       </c>
       <c r="E31">
-        <v>-0.04359321713068429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.031871560083238</v>
+      </c>
+      <c r="F31">
+        <v>0.0334828950892205</v>
+      </c>
+      <c r="G31">
+        <v>0.01979127517020211</v>
+      </c>
+      <c r="H31">
+        <v>-0.04655643131986542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.007049627093543463</v>
+        <v>0.01218924070799643</v>
       </c>
       <c r="C32">
-        <v>0.01330656080902817</v>
+        <v>-0.01881617632288436</v>
       </c>
       <c r="D32">
-        <v>-0.06313056076986696</v>
+        <v>0.09921125339498468</v>
       </c>
       <c r="E32">
-        <v>-0.09660215569799439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.09148752014278691</v>
+      </c>
+      <c r="F32">
+        <v>0.01460915705122219</v>
+      </c>
+      <c r="G32">
+        <v>0.02291900225000069</v>
+      </c>
+      <c r="H32">
+        <v>-0.09608482604605423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0255468163808242</v>
+        <v>0.02318141251501143</v>
       </c>
       <c r="C33">
-        <v>0.02585820628293252</v>
+        <v>-0.04315993547366462</v>
       </c>
       <c r="D33">
-        <v>-0.133478972684602</v>
+        <v>0.1308062220627502</v>
       </c>
       <c r="E33">
-        <v>-0.06685488163890758</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0439600257955923</v>
+      </c>
+      <c r="F33">
+        <v>0.01558708259815842</v>
+      </c>
+      <c r="G33">
+        <v>-0.003210613992550177</v>
+      </c>
+      <c r="H33">
+        <v>-0.06910246797997698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0347669684827011</v>
+        <v>0.02679636534572113</v>
       </c>
       <c r="C34">
-        <v>0.06371152582365945</v>
+        <v>-0.06087798289870154</v>
       </c>
       <c r="D34">
-        <v>-0.06990452931852852</v>
+        <v>0.05490302831694232</v>
       </c>
       <c r="E34">
-        <v>-0.01048815778814282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004105813647054432</v>
+      </c>
+      <c r="F34">
+        <v>-0.01098184447672825</v>
+      </c>
+      <c r="G34">
+        <v>-0.002603353625097553</v>
+      </c>
+      <c r="H34">
+        <v>-0.07756020807544062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000586110548023701</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0007487985920076591</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.00444127836462701</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.0003074371601634644</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001056859304498075</v>
+      </c>
+      <c r="G35">
+        <v>-0.002223976198178665</v>
+      </c>
+      <c r="H35">
+        <v>-0.0022246383393883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02060236278059552</v>
+        <v>0.01829792006942048</v>
       </c>
       <c r="C36">
-        <v>0.003150123956410383</v>
+        <v>-0.01468155470408017</v>
       </c>
       <c r="D36">
-        <v>-0.07351914068918028</v>
+        <v>0.07646066735216188</v>
       </c>
       <c r="E36">
-        <v>-0.05451472284690718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03455732928949055</v>
+      </c>
+      <c r="F36">
+        <v>-0.002845276247652587</v>
+      </c>
+      <c r="G36">
+        <v>0.00879217329028408</v>
+      </c>
+      <c r="H36">
+        <v>-0.0586309147965457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02387599595638791</v>
+        <v>0.01994822312400709</v>
       </c>
       <c r="C38">
-        <v>0.01627154527007412</v>
+        <v>-0.02055828870578294</v>
       </c>
       <c r="D38">
-        <v>-0.0512309832635342</v>
+        <v>0.0572009836722239</v>
       </c>
       <c r="E38">
-        <v>-0.04644229317546001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.03687998925540382</v>
+      </c>
+      <c r="F38">
+        <v>-0.00541838663636908</v>
+      </c>
+      <c r="G38">
+        <v>-0.03774407607716382</v>
+      </c>
+      <c r="H38">
+        <v>-0.03862590932800174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03962340935619943</v>
+        <v>0.03541900084303168</v>
       </c>
       <c r="C39">
-        <v>0.05265708723178428</v>
+        <v>-0.06465684091833689</v>
       </c>
       <c r="D39">
-        <v>-0.08965897972743724</v>
+        <v>0.103365904727056</v>
       </c>
       <c r="E39">
-        <v>-0.02113510046941494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.006179724671139173</v>
+      </c>
+      <c r="F39">
+        <v>-0.02501304227300143</v>
+      </c>
+      <c r="G39">
+        <v>-0.005705992741658016</v>
+      </c>
+      <c r="H39">
+        <v>-0.08816295076475882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01906841983966908</v>
+        <v>0.01365804478480614</v>
       </c>
       <c r="C40">
-        <v>0.04792364625181967</v>
+        <v>-0.03900954538909363</v>
       </c>
       <c r="D40">
-        <v>-0.07763337229936974</v>
+        <v>0.08403082642678607</v>
       </c>
       <c r="E40">
-        <v>-0.08200976230949264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.06370118715321695</v>
+      </c>
+      <c r="F40">
+        <v>0.06408494234105633</v>
+      </c>
+      <c r="G40">
+        <v>-0.06442821527149539</v>
+      </c>
+      <c r="H40">
+        <v>-0.1617267787216409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02487817590313831</v>
+        <v>0.02264076318210406</v>
       </c>
       <c r="C41">
-        <v>-0.006418944913486469</v>
+        <v>-0.008528841139443839</v>
       </c>
       <c r="D41">
-        <v>-0.0665272771477495</v>
+        <v>0.05376474441052557</v>
       </c>
       <c r="E41">
-        <v>-0.07578770433387388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.05229325606946699</v>
+      </c>
+      <c r="F41">
+        <v>0.002272222910619421</v>
+      </c>
+      <c r="G41">
+        <v>-0.01292177302980871</v>
+      </c>
+      <c r="H41">
+        <v>-0.04929111835800853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03079574280078996</v>
+        <v>0.02298005288943368</v>
       </c>
       <c r="C43">
-        <v>0.004668207725943532</v>
+        <v>-0.01833010013800239</v>
       </c>
       <c r="D43">
-        <v>-0.1060909061065886</v>
+        <v>0.08424588340702016</v>
       </c>
       <c r="E43">
-        <v>-0.06490054400973104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03501919739149315</v>
+      </c>
+      <c r="F43">
+        <v>0.00537795448973562</v>
+      </c>
+      <c r="G43">
+        <v>-0.01370269718139916</v>
+      </c>
+      <c r="H43">
+        <v>-0.07087381861223029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01125696741112977</v>
+        <v>0.0169624125871246</v>
       </c>
       <c r="C44">
-        <v>0.04144459954977813</v>
+        <v>-0.04374138351660301</v>
       </c>
       <c r="D44">
-        <v>-0.07936793122480383</v>
+        <v>0.09737375088758374</v>
       </c>
       <c r="E44">
-        <v>-0.07920573422895441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.06945389289902272</v>
+      </c>
+      <c r="F44">
+        <v>0.006415522662780344</v>
+      </c>
+      <c r="G44">
+        <v>-0.004937213413447616</v>
+      </c>
+      <c r="H44">
+        <v>-0.07356376406106757</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02051399293778511</v>
+        <v>0.01663988701519921</v>
       </c>
       <c r="C46">
-        <v>0.01860559998074615</v>
+        <v>-0.02821350422924401</v>
       </c>
       <c r="D46">
-        <v>-0.07618473617018037</v>
+        <v>0.08793160508484642</v>
       </c>
       <c r="E46">
-        <v>-0.05792020539737944</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.03978809919594894</v>
+      </c>
+      <c r="F46">
+        <v>-0.01660793564938191</v>
+      </c>
+      <c r="G46">
+        <v>0.01304839725725502</v>
+      </c>
+      <c r="H46">
+        <v>-0.1160364998264136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09553554011418001</v>
+        <v>0.08278592654404983</v>
       </c>
       <c r="C47">
-        <v>0.06978025192335817</v>
+        <v>-0.08850982198877984</v>
       </c>
       <c r="D47">
-        <v>-0.04466738892665941</v>
+        <v>0.03392200413428639</v>
       </c>
       <c r="E47">
-        <v>-0.03789391973306606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.03650802381350622</v>
+      </c>
+      <c r="F47">
+        <v>0.02153292887648045</v>
+      </c>
+      <c r="G47">
+        <v>0.04275505206579486</v>
+      </c>
+      <c r="H47">
+        <v>-0.0226657868207452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01623397504724077</v>
+        <v>0.01631927480184945</v>
       </c>
       <c r="C48">
-        <v>0.01489354793172771</v>
+        <v>-0.01981171320135042</v>
       </c>
       <c r="D48">
-        <v>-0.06748877279731361</v>
+        <v>0.07213023946401861</v>
       </c>
       <c r="E48">
-        <v>-0.06988071009782648</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04957076962285416</v>
+      </c>
+      <c r="F48">
+        <v>-0.004394378630008681</v>
+      </c>
+      <c r="G48">
+        <v>0.006157827346200632</v>
+      </c>
+      <c r="H48">
+        <v>-0.06372258544163559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.06976741323678229</v>
+        <v>0.0546654562986211</v>
       </c>
       <c r="C50">
-        <v>0.05972366139383489</v>
+        <v>-0.06633216701603668</v>
       </c>
       <c r="D50">
-        <v>-0.06047326651656832</v>
+        <v>0.05524758849373487</v>
       </c>
       <c r="E50">
-        <v>-0.05367157212937766</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.04453482031577184</v>
+      </c>
+      <c r="F50">
+        <v>0.04075584834659191</v>
+      </c>
+      <c r="G50">
+        <v>-0.01179995738327269</v>
+      </c>
+      <c r="H50">
+        <v>-0.04841946357702286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008590212110023716</v>
+        <v>0.008555097932057349</v>
       </c>
       <c r="C51">
-        <v>0.01851424089234326</v>
+        <v>-0.01974244220625285</v>
       </c>
       <c r="D51">
-        <v>-0.07987092242330812</v>
+        <v>0.08663924240661468</v>
       </c>
       <c r="E51">
-        <v>-0.01694702445365959</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01296595536125017</v>
+      </c>
+      <c r="F51">
+        <v>-0.002127921334438306</v>
+      </c>
+      <c r="G51">
+        <v>-0.01828344370047602</v>
+      </c>
+      <c r="H51">
+        <v>-0.07577891470570018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08345407125006182</v>
+        <v>0.08628887849148317</v>
       </c>
       <c r="C53">
-        <v>0.09222300527760256</v>
+        <v>-0.1024268283245249</v>
       </c>
       <c r="D53">
-        <v>-0.02055630762259106</v>
+        <v>0.01144029216660099</v>
       </c>
       <c r="E53">
-        <v>-0.09784890599414763</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.1061407438037937</v>
+      </c>
+      <c r="F53">
+        <v>0.04405132169590334</v>
+      </c>
+      <c r="G53">
+        <v>0.08857247958602542</v>
+      </c>
+      <c r="H53">
+        <v>-0.01032944121867872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03096675674496968</v>
+        <v>0.02593387067174311</v>
       </c>
       <c r="C54">
-        <v>0.03403546496606008</v>
+        <v>-0.0370159769308504</v>
       </c>
       <c r="D54">
-        <v>-0.08767860107540959</v>
+        <v>0.08546675227031024</v>
       </c>
       <c r="E54">
-        <v>-0.05214743722989872</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.04237542657453122</v>
+      </c>
+      <c r="F54">
+        <v>-0.01326295754446094</v>
+      </c>
+      <c r="G54">
+        <v>-0.02151659237012682</v>
+      </c>
+      <c r="H54">
+        <v>-0.1148919648284291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0891569177629401</v>
+        <v>0.08508657723061322</v>
       </c>
       <c r="C55">
-        <v>0.06434306381663167</v>
+        <v>-0.08104636529053426</v>
       </c>
       <c r="D55">
-        <v>0.004786070459418644</v>
+        <v>-0.008193804007117656</v>
       </c>
       <c r="E55">
-        <v>-0.05523494589423156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.06082644981326701</v>
+      </c>
+      <c r="F55">
+        <v>0.04129451789633563</v>
+      </c>
+      <c r="G55">
+        <v>0.0440219854037478</v>
+      </c>
+      <c r="H55">
+        <v>0.004662560771969969</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1381862787880096</v>
+        <v>0.1291195343303879</v>
       </c>
       <c r="C56">
-        <v>0.1015300751958354</v>
+        <v>-0.126222915080945</v>
       </c>
       <c r="D56">
-        <v>-0.00715057192539888</v>
+        <v>-0.008595741680832764</v>
       </c>
       <c r="E56">
-        <v>-0.04808372268379203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.06330058458485116</v>
+      </c>
+      <c r="F56">
+        <v>0.03213717268202575</v>
+      </c>
+      <c r="G56">
+        <v>0.04824977348228893</v>
+      </c>
+      <c r="H56">
+        <v>0.003674518565113034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.02341325412710224</v>
+        <v>0.02933027624888973</v>
       </c>
       <c r="C58">
-        <v>-0.02413716634701624</v>
+        <v>-0.01758152017528849</v>
       </c>
       <c r="D58">
-        <v>-0.3631876686824108</v>
+        <v>0.3860766411059432</v>
       </c>
       <c r="E58">
-        <v>-0.2271685964911821</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2010767006687615</v>
+      </c>
+      <c r="F58">
+        <v>0.142788273749332</v>
+      </c>
+      <c r="G58">
+        <v>-0.2583145027879817</v>
+      </c>
+      <c r="H58">
+        <v>0.4198708593655363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1413697383300392</v>
+        <v>0.1766687277036067</v>
       </c>
       <c r="C59">
-        <v>-0.1901262190037803</v>
+        <v>0.1692172478618789</v>
       </c>
       <c r="D59">
-        <v>-0.02893062014395053</v>
+        <v>0.05220941832437933</v>
       </c>
       <c r="E59">
-        <v>-0.03037575078112203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01853220316043088</v>
+      </c>
+      <c r="F59">
+        <v>-0.04318935144617561</v>
+      </c>
+      <c r="G59">
+        <v>0.0001724624500225343</v>
+      </c>
+      <c r="H59">
+        <v>0.02363452158477156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2487403394835618</v>
+        <v>0.2268471483071892</v>
       </c>
       <c r="C60">
-        <v>0.06942679270932847</v>
+        <v>-0.1040414277342856</v>
       </c>
       <c r="D60">
-        <v>-0.166812720032351</v>
+        <v>0.1140897963030041</v>
       </c>
       <c r="E60">
-        <v>0.32668676974113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.3649924382278945</v>
+      </c>
+      <c r="F60">
+        <v>0.02537933821445792</v>
+      </c>
+      <c r="G60">
+        <v>0.03719029859115923</v>
+      </c>
+      <c r="H60">
+        <v>0.1126119986416539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04627113699430081</v>
+        <v>0.03991155796163945</v>
       </c>
       <c r="C61">
-        <v>0.05602719032327078</v>
+        <v>-0.06188621424569602</v>
       </c>
       <c r="D61">
-        <v>-0.09625894972490681</v>
+        <v>0.09133732813326727</v>
       </c>
       <c r="E61">
-        <v>-0.02579654927513062</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.002947868461302264</v>
+      </c>
+      <c r="F61">
+        <v>-0.01663150729570109</v>
+      </c>
+      <c r="G61">
+        <v>0.007143330694749543</v>
+      </c>
+      <c r="H61">
+        <v>-0.07996820800746854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01656463879140641</v>
+        <v>0.01366242369548974</v>
       </c>
       <c r="C63">
-        <v>0.02357865480478026</v>
+        <v>-0.033738217554873</v>
       </c>
       <c r="D63">
-        <v>-0.06270674085640827</v>
+        <v>0.06746881368915351</v>
       </c>
       <c r="E63">
-        <v>-0.04133368814962018</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.03063472658016041</v>
+      </c>
+      <c r="F63">
+        <v>0.01753259504610307</v>
+      </c>
+      <c r="G63">
+        <v>-0.003417184306822793</v>
+      </c>
+      <c r="H63">
+        <v>-0.05241272833275851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05731569766424636</v>
+        <v>0.0536925111181876</v>
       </c>
       <c r="C64">
-        <v>0.06164003203393036</v>
+        <v>-0.08167591283476766</v>
       </c>
       <c r="D64">
-        <v>-0.05724204179051446</v>
+        <v>0.05371777989631041</v>
       </c>
       <c r="E64">
-        <v>-0.04264094201191871</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0271308487300782</v>
+      </c>
+      <c r="F64">
+        <v>-0.01534228524167892</v>
+      </c>
+      <c r="G64">
+        <v>0.05370696512128873</v>
+      </c>
+      <c r="H64">
+        <v>-0.06377767101264381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0524958137000774</v>
+        <v>0.04835587529175051</v>
       </c>
       <c r="C65">
-        <v>0.003158785781096306</v>
+        <v>-0.02509324143435938</v>
       </c>
       <c r="D65">
-        <v>-0.1099753799350255</v>
+        <v>0.1151791715483164</v>
       </c>
       <c r="E65">
-        <v>-0.02899504125036608</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.003212410916521391</v>
+      </c>
+      <c r="F65">
+        <v>0.01412089456067725</v>
+      </c>
+      <c r="G65">
+        <v>-0.02993084657411328</v>
+      </c>
+      <c r="H65">
+        <v>0.02622477297295666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04528547202775741</v>
+        <v>0.03992441972966772</v>
       </c>
       <c r="C66">
-        <v>0.0590418378109849</v>
+        <v>-0.07494097672534826</v>
       </c>
       <c r="D66">
-        <v>-0.1103778047998122</v>
+        <v>0.1284233923212957</v>
       </c>
       <c r="E66">
-        <v>-0.02450833440118397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01271611285703806</v>
+      </c>
+      <c r="F66">
+        <v>-0.01088157094572049</v>
+      </c>
+      <c r="G66">
+        <v>-0.01587354348177497</v>
+      </c>
+      <c r="H66">
+        <v>-0.05572953470867432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04232664978628599</v>
+        <v>0.03663421069706173</v>
       </c>
       <c r="C67">
-        <v>0.02277108441747672</v>
+        <v>-0.02638143581305389</v>
       </c>
       <c r="D67">
-        <v>-0.02087911776063313</v>
+        <v>0.01821629971988142</v>
       </c>
       <c r="E67">
-        <v>-0.02837335329701866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01659811105911989</v>
+      </c>
+      <c r="F67">
+        <v>-0.0008947679261263925</v>
+      </c>
+      <c r="G67">
+        <v>-0.03476528653100743</v>
+      </c>
+      <c r="H67">
+        <v>-0.03733796165882784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1637863952861146</v>
+        <v>0.1956789432770089</v>
       </c>
       <c r="C68">
-        <v>-0.2444279319629269</v>
+        <v>0.1998066850921746</v>
       </c>
       <c r="D68">
-        <v>0.01904999957263331</v>
+        <v>0.01274259780091504</v>
       </c>
       <c r="E68">
-        <v>-0.04672565151355285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.05549928762609976</v>
+      </c>
+      <c r="F68">
+        <v>0.02749341486693822</v>
+      </c>
+      <c r="G68">
+        <v>-0.01058199397170579</v>
+      </c>
+      <c r="H68">
+        <v>0.001806760340554854</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08594550567515562</v>
+        <v>0.07530006849889344</v>
       </c>
       <c r="C69">
-        <v>0.08422368794429964</v>
+        <v>-0.09642888904925487</v>
       </c>
       <c r="D69">
-        <v>-0.05975898460315768</v>
+        <v>0.04507248510280334</v>
       </c>
       <c r="E69">
-        <v>-0.02938458260576604</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02521346856496233</v>
+      </c>
+      <c r="F69">
+        <v>0.004525257893607425</v>
+      </c>
+      <c r="G69">
+        <v>0.03272542382934856</v>
+      </c>
+      <c r="H69">
+        <v>-0.03659501660657701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1428450803470826</v>
+        <v>0.1817181592702036</v>
       </c>
       <c r="C71">
-        <v>-0.2408056825370705</v>
+        <v>0.2112336482881879</v>
       </c>
       <c r="D71">
-        <v>-0.01911573193918851</v>
+        <v>0.03641245173880436</v>
       </c>
       <c r="E71">
-        <v>-0.05339405594904884</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.05517630725141218</v>
+      </c>
+      <c r="F71">
+        <v>0.03179887056948229</v>
+      </c>
+      <c r="G71">
+        <v>0.01854549998599857</v>
+      </c>
+      <c r="H71">
+        <v>-0.02622783738954121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09736722457496379</v>
+        <v>0.09864055261638059</v>
       </c>
       <c r="C72">
-        <v>0.03989078819028546</v>
+        <v>-0.06922184649972786</v>
       </c>
       <c r="D72">
-        <v>-0.08812178188056502</v>
+        <v>0.09391716843623767</v>
       </c>
       <c r="E72">
-        <v>0.01865975508268176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.03514806212678769</v>
+      </c>
+      <c r="F72">
+        <v>0.03730495641136405</v>
+      </c>
+      <c r="G72">
+        <v>0.03328971549784611</v>
+      </c>
+      <c r="H72">
+        <v>-0.03957907160424345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2726410161523279</v>
+        <v>0.2446135625093401</v>
       </c>
       <c r="C73">
-        <v>0.006668800793059329</v>
+        <v>-0.08190340593618788</v>
       </c>
       <c r="D73">
-        <v>-0.2770499960708499</v>
+        <v>0.1794621194679229</v>
       </c>
       <c r="E73">
-        <v>0.6547588959140008</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.6669500815427749</v>
+      </c>
+      <c r="F73">
+        <v>0.02218871230156057</v>
+      </c>
+      <c r="G73">
+        <v>0.01297628401556911</v>
+      </c>
+      <c r="H73">
+        <v>0.1499966233595554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1064640451369668</v>
+        <v>0.0992095289036469</v>
       </c>
       <c r="C74">
-        <v>0.07576162116803827</v>
+        <v>-0.09129555059656627</v>
       </c>
       <c r="D74">
-        <v>-0.01550699236325329</v>
+        <v>-0.003977485686076155</v>
       </c>
       <c r="E74">
-        <v>-0.08221465178078233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.07875958505968308</v>
+      </c>
+      <c r="F74">
+        <v>0.05780951403387818</v>
+      </c>
+      <c r="G74">
+        <v>0.06318674095765643</v>
+      </c>
+      <c r="H74">
+        <v>0.02730110357899747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2468043439765824</v>
+        <v>0.2290504826627017</v>
       </c>
       <c r="C75">
-        <v>0.1229648159531347</v>
+        <v>-0.166416841101941</v>
       </c>
       <c r="D75">
-        <v>0.06556026295186645</v>
+        <v>-0.09313574634723497</v>
       </c>
       <c r="E75">
-        <v>-0.1063214569652008</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1041066171227243</v>
+      </c>
+      <c r="F75">
+        <v>0.005006135344028654</v>
+      </c>
+      <c r="G75">
+        <v>0.05609421503311948</v>
+      </c>
+      <c r="H75">
+        <v>0.1062436511852556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1401171302742447</v>
+        <v>0.1276542489891571</v>
       </c>
       <c r="C76">
-        <v>0.08692343048517025</v>
+        <v>-0.1141009838948667</v>
       </c>
       <c r="D76">
-        <v>-0.001431381088228806</v>
+        <v>-0.01306860896571403</v>
       </c>
       <c r="E76">
-        <v>-0.1388389797218274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.1167333478117338</v>
+      </c>
+      <c r="F76">
+        <v>0.02093491230836347</v>
+      </c>
+      <c r="G76">
+        <v>0.04592857772058237</v>
+      </c>
+      <c r="H76">
+        <v>-0.007161946256616251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0662252086680364</v>
+        <v>0.06102592568725389</v>
       </c>
       <c r="C77">
-        <v>0.06111652357986478</v>
+        <v>-0.0719054327171977</v>
       </c>
       <c r="D77">
-        <v>-0.04246770681300262</v>
+        <v>0.1275035698423728</v>
       </c>
       <c r="E77">
-        <v>-0.1777294024593419</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2094314858055462</v>
+      </c>
+      <c r="F77">
+        <v>-0.250993048554276</v>
+      </c>
+      <c r="G77">
+        <v>-0.2174708778068352</v>
+      </c>
+      <c r="H77">
+        <v>0.3732271064302788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04403766737574802</v>
+        <v>0.04248736756736326</v>
       </c>
       <c r="C78">
-        <v>0.05438544746190761</v>
+        <v>-0.06687824339798711</v>
       </c>
       <c r="D78">
-        <v>-0.1159883713136423</v>
+        <v>0.1300648734093162</v>
       </c>
       <c r="E78">
-        <v>0.002037952199814571</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01526451552624128</v>
+      </c>
+      <c r="F78">
+        <v>0.00831549567337026</v>
+      </c>
+      <c r="G78">
+        <v>0.01478189730923976</v>
+      </c>
+      <c r="H78">
+        <v>-0.02534196025137652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.003967950736721714</v>
+        <v>0.04452411325684502</v>
       </c>
       <c r="C79">
-        <v>0.05467470010068473</v>
+        <v>-0.09056641325634594</v>
       </c>
       <c r="D79">
-        <v>-0.006920655526826073</v>
+        <v>-0.02562686451692381</v>
       </c>
       <c r="E79">
-        <v>-0.09414533357363064</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1921379194997719</v>
+      </c>
+      <c r="F79">
+        <v>0.1242182133167075</v>
+      </c>
+      <c r="G79">
+        <v>0.7204285166829906</v>
+      </c>
+      <c r="H79">
+        <v>0.3614704655273374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03309407518523325</v>
+        <v>0.02604418180599524</v>
       </c>
       <c r="C80">
-        <v>0.02869670540915717</v>
+        <v>-0.04376042436765303</v>
       </c>
       <c r="D80">
-        <v>-0.02631167523030215</v>
+        <v>0.03315497284611695</v>
       </c>
       <c r="E80">
-        <v>-0.04877538074556527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02097311478359939</v>
+      </c>
+      <c r="F80">
+        <v>-0.03324971287054133</v>
+      </c>
+      <c r="G80">
+        <v>-0.0497350966698557</v>
+      </c>
+      <c r="H80">
+        <v>-0.01988410120271392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1429512158649709</v>
+        <v>0.1275850584815529</v>
       </c>
       <c r="C81">
-        <v>0.09452157594913295</v>
+        <v>-0.1166591145802169</v>
       </c>
       <c r="D81">
-        <v>0.04753780466401745</v>
+        <v>-0.06498378942697322</v>
       </c>
       <c r="E81">
-        <v>-0.1252571906032639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1187005043111827</v>
+      </c>
+      <c r="F81">
+        <v>0.02200011514493288</v>
+      </c>
+      <c r="G81">
+        <v>0.04871213778151677</v>
+      </c>
+      <c r="H81">
+        <v>0.01040657236969707</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3032576310687909</v>
+        <v>0.2541439635574649</v>
       </c>
       <c r="C82">
-        <v>0.2703368073513377</v>
+        <v>-0.2625681811984776</v>
       </c>
       <c r="D82">
-        <v>0.228510398926955</v>
+        <v>-0.2291997957750803</v>
       </c>
       <c r="E82">
-        <v>0.06807143794343817</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01905521284756891</v>
+      </c>
+      <c r="F82">
+        <v>0.04575899421402126</v>
+      </c>
+      <c r="G82">
+        <v>0.07849307045085523</v>
+      </c>
+      <c r="H82">
+        <v>-0.4293308889422668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03089791850594074</v>
+        <v>0.02273857307144088</v>
       </c>
       <c r="C83">
-        <v>0.0446634254851515</v>
+        <v>-0.05285487984104258</v>
       </c>
       <c r="D83">
-        <v>-0.04559042105459892</v>
+        <v>0.05092370275736363</v>
       </c>
       <c r="E83">
-        <v>-0.01314146145707987</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.01282837129625351</v>
+      </c>
+      <c r="F83">
+        <v>-0.02374317631008282</v>
+      </c>
+      <c r="G83">
+        <v>-0.01840773045207897</v>
+      </c>
+      <c r="H83">
+        <v>-0.02102413115897112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002315330320362748</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004945041621324774</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.01698740506654121</v>
       </c>
       <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01571874638641934</v>
+      </c>
+      <c r="F84">
+        <v>0.007918334132097702</v>
+      </c>
+      <c r="G84">
+        <v>-0.007301437301644769</v>
+      </c>
+      <c r="H84">
+        <v>-0.002296594087260641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1808748859365937</v>
+        <v>0.1597475355791197</v>
       </c>
       <c r="C85">
-        <v>0.0965211556825319</v>
+        <v>-0.1340835807962205</v>
       </c>
       <c r="D85">
-        <v>0.03432091519241642</v>
+        <v>-0.06582750434349705</v>
       </c>
       <c r="E85">
-        <v>-0.03548494325006679</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.05018433797656217</v>
+      </c>
+      <c r="F85">
+        <v>0.03540978891587453</v>
+      </c>
+      <c r="G85">
+        <v>0.09425304193924133</v>
+      </c>
+      <c r="H85">
+        <v>0.08392362218334676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01735961521124166</v>
+        <v>0.01940289594970426</v>
       </c>
       <c r="C86">
-        <v>0.02046070185352995</v>
+        <v>-0.02214964157511956</v>
       </c>
       <c r="D86">
-        <v>-0.140934729370995</v>
+        <v>0.12726620097037</v>
       </c>
       <c r="E86">
-        <v>-0.01108441555666549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.009556294300208174</v>
+      </c>
+      <c r="F86">
+        <v>-0.01595690320879952</v>
+      </c>
+      <c r="G86">
+        <v>-0.003054000456008501</v>
+      </c>
+      <c r="H86">
+        <v>-0.05709591240415633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02811606301915658</v>
+        <v>0.03360833341938693</v>
       </c>
       <c r="C87">
-        <v>0.001079369026564005</v>
+        <v>-0.02485917435248643</v>
       </c>
       <c r="D87">
-        <v>-0.09794126517533401</v>
+        <v>0.1333899936293516</v>
       </c>
       <c r="E87">
-        <v>-0.09938488909500012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08347903980362632</v>
+      </c>
+      <c r="F87">
+        <v>-0.0121684753469288</v>
+      </c>
+      <c r="G87">
+        <v>-0.01883148168015891</v>
+      </c>
+      <c r="H87">
+        <v>-0.03355128284405948</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07906047267612062</v>
+        <v>0.0693053026708213</v>
       </c>
       <c r="C88">
-        <v>0.04159081173551606</v>
+        <v>-0.05747622849714028</v>
       </c>
       <c r="D88">
-        <v>-0.0339236186670038</v>
+        <v>0.01615755668772463</v>
       </c>
       <c r="E88">
-        <v>-0.04488744885462879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01881253335734145</v>
+      </c>
+      <c r="F88">
+        <v>0.00544661322231245</v>
+      </c>
+      <c r="G88">
+        <v>0.002346518725305537</v>
+      </c>
+      <c r="H88">
+        <v>-0.04182458745780365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2061592436212668</v>
+        <v>0.2770637859073726</v>
       </c>
       <c r="C89">
-        <v>-0.3798108757186055</v>
+        <v>0.3556933194557532</v>
       </c>
       <c r="D89">
-        <v>0.03306591690411981</v>
+        <v>-0.006073137311259563</v>
       </c>
       <c r="E89">
-        <v>-0.05815609183817848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0464879192956866</v>
+      </c>
+      <c r="F89">
+        <v>-0.04724491998398481</v>
+      </c>
+      <c r="G89">
+        <v>0.04312485975963387</v>
+      </c>
+      <c r="H89">
+        <v>-0.07615639601647155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2011537258887071</v>
+        <v>0.2410095752861332</v>
       </c>
       <c r="C90">
-        <v>-0.2954288422225186</v>
+        <v>0.2551679343550973</v>
       </c>
       <c r="D90">
-        <v>0.02942291148639865</v>
+        <v>0.01373903417241314</v>
       </c>
       <c r="E90">
-        <v>-0.05156468746325987</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.04484706377477446</v>
+      </c>
+      <c r="F90">
+        <v>0.01249935547395714</v>
+      </c>
+      <c r="G90">
+        <v>-0.05017335509643079</v>
+      </c>
+      <c r="H90">
+        <v>-0.04298490594129062</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1820234346183287</v>
+        <v>0.160444533296908</v>
       </c>
       <c r="C91">
-        <v>0.1415708646614729</v>
+        <v>-0.1574928389302686</v>
       </c>
       <c r="D91">
-        <v>0.06045074425097752</v>
+        <v>-0.08363093309219694</v>
       </c>
       <c r="E91">
-        <v>-0.1024343356845388</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1089632382269225</v>
+      </c>
+      <c r="F91">
+        <v>0.02582413960581787</v>
+      </c>
+      <c r="G91">
+        <v>0.09264396515514232</v>
+      </c>
+      <c r="H91">
+        <v>0.08622409079074257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1732198059658797</v>
+        <v>0.2203254270326811</v>
       </c>
       <c r="C92">
-        <v>-0.2869223221612354</v>
+        <v>0.2716572427918129</v>
       </c>
       <c r="D92">
-        <v>-0.005745211050696014</v>
+        <v>0.02724639601061758</v>
       </c>
       <c r="E92">
-        <v>-0.1139970239342112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.08904131603636523</v>
+      </c>
+      <c r="F92">
+        <v>-0.01630367735163883</v>
+      </c>
+      <c r="G92">
+        <v>-0.01107950444694826</v>
+      </c>
+      <c r="H92">
+        <v>-0.04023299203514198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2311398458283853</v>
+        <v>0.2668224104172108</v>
       </c>
       <c r="C93">
-        <v>-0.3164187107900568</v>
+        <v>0.2694503698847671</v>
       </c>
       <c r="D93">
-        <v>0.003038443051868803</v>
+        <v>-0.002769051854641034</v>
       </c>
       <c r="E93">
-        <v>-0.04146241824070451</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01823262023176567</v>
+      </c>
+      <c r="F93">
+        <v>0.02358563547838087</v>
+      </c>
+      <c r="G93">
+        <v>0.002913454745475041</v>
+      </c>
+      <c r="H93">
+        <v>0.002020713817007882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3915551736968246</v>
+        <v>0.3375700139161603</v>
       </c>
       <c r="C94">
-        <v>0.2192787715905085</v>
+        <v>-0.2635290379010214</v>
       </c>
       <c r="D94">
-        <v>0.4669420866073632</v>
+        <v>-0.4347996272490693</v>
       </c>
       <c r="E94">
-        <v>-0.06827857098690066</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.08806625988966069</v>
+      </c>
+      <c r="F94">
+        <v>-0.01950894577101518</v>
+      </c>
+      <c r="G94">
+        <v>-0.4855739496568831</v>
+      </c>
+      <c r="H94">
+        <v>0.1571916778121164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07330718867388994</v>
+        <v>0.06568381403531214</v>
       </c>
       <c r="C95">
-        <v>0.07204999734926991</v>
+        <v>-0.0663080983147486</v>
       </c>
       <c r="D95">
-        <v>-0.1078441650067135</v>
+        <v>0.07910257893492346</v>
       </c>
       <c r="E95">
-        <v>-0.1642352353142576</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0007389267360522132</v>
+      </c>
+      <c r="F95">
+        <v>-0.917770751453725</v>
+      </c>
+      <c r="G95">
+        <v>0.1346241228777842</v>
+      </c>
+      <c r="H95">
+        <v>0.001476164527856855</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +3190,19 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +3216,45 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1756508893664442</v>
+        <v>0.1625557548374775</v>
       </c>
       <c r="C98">
-        <v>0.0244264645950734</v>
+        <v>-0.06506991926790132</v>
       </c>
       <c r="D98">
-        <v>-0.1615400556393322</v>
+        <v>0.1346552253439872</v>
       </c>
       <c r="E98">
-        <v>0.2696913604631945</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.3166162889196767</v>
+      </c>
+      <c r="F98">
+        <v>0.05121050339529896</v>
+      </c>
+      <c r="G98">
+        <v>0.04811352664868859</v>
+      </c>
+      <c r="H98">
+        <v>0.05056298245709272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.008086599312736992</v>
+        <v>0.006863055638431998</v>
       </c>
       <c r="C101">
-        <v>0.01970500831897948</v>
+        <v>-0.02297200473136559</v>
       </c>
       <c r="D101">
-        <v>-0.06470814564957729</v>
+        <v>0.07951146220364395</v>
       </c>
       <c r="E101">
-        <v>-0.04926754247123988</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03380128038586244</v>
+      </c>
+      <c r="F101">
+        <v>0.004090430576630114</v>
+      </c>
+      <c r="G101">
+        <v>0.00568704870728792</v>
+      </c>
+      <c r="H101">
+        <v>-0.1116973614113122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1251401493145759</v>
+        <v>0.107536840493497</v>
       </c>
       <c r="C102">
-        <v>0.1134378448408987</v>
+        <v>-0.1180358678881092</v>
       </c>
       <c r="D102">
-        <v>0.03731986697711214</v>
+        <v>-0.0556467238760367</v>
       </c>
       <c r="E102">
-        <v>-0.03831708356113002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03211643884964743</v>
+      </c>
+      <c r="F102">
+        <v>-0.02265868413709988</v>
+      </c>
+      <c r="G102">
+        <v>0.03500042813856162</v>
+      </c>
+      <c r="H102">
+        <v>-0.02993932462146967</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
